--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/PivotSubtotalsSource/input.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/PivotSubtotalsSource/input.xlsx
@@ -522,7 +522,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="12" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" itemPrintTitles="1" mergeItem="1" indent="0" compact="0" compactData="0" gridDropZones="1">
+<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="12" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" itemPrintTitles="1" mergeItem="1" createdVersion="5" indent="0" compact="0" compactData="0" gridDropZones="1">
   <x:location ref="B3" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <x:pivotFields count="7">
     <x:pivotField name="Company" axis="axisRow" compact="0" outline="0" showAll="0" includeNewItemsInFilter="1">

--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/PivotSubtotalsSource/input.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/PivotSubtotalsSource/input.xlsx
@@ -1023,7 +1023,7 @@
     <x:col min="2" max="8" width="10.832031" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="2" spans="1:8" customFormat="1" ht="30.75" customHeight="1">
+    <x:row r="2" spans="1:8" ht="30.75" customHeight="1">
       <x:c r="B2" s="13" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -1046,7 +1046,7 @@
         <x:v>6</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:8" customFormat="1" ht="20.1" customHeight="1">
+    <x:row r="3" spans="1:8" ht="20.1" customHeight="1">
       <x:c r="B3" s="1" t="s">
         <x:v>7</x:v>
       </x:c>
@@ -1187,7 +1187,7 @@
   </x:cols>
   <x:sheetData>
     <x:row r="3" spans="1:6"/>
-    <x:row r="4" spans="1:6" customFormat="1" ht="11.25" customHeight="1"/>
+    <x:row r="4" spans="1:6" ht="11.25" customHeight="1"/>
     <x:row r="5" spans="1:6"/>
     <x:row r="6" spans="1:6"/>
     <x:row r="7" spans="1:6"/>
@@ -1197,83 +1197,83 @@
     <x:row r="11" spans="1:6"/>
     <x:row r="12" spans="1:6"/>
     <x:row r="13" spans="1:6"/>
-    <x:row r="14" spans="1:6" customFormat="1" ht="12.75" customHeight="1"/>
-    <x:row r="29" spans="1:6" customFormat="1" ht="11.25" customHeight="1"/>
-    <x:row r="30" spans="1:6" customFormat="1" ht="11.25" customHeight="1"/>
-    <x:row r="42" spans="1:6" customFormat="1" ht="11.25" customHeight="1"/>
-    <x:row r="43" spans="1:6" customFormat="1" ht="11.25" customHeight="1"/>
-    <x:row r="50" spans="1:6" customFormat="1" ht="11.25" customHeight="1"/>
-    <x:row r="65" spans="1:6" customFormat="1" ht="11.25" customHeight="1"/>
-    <x:row r="72" spans="1:6" customFormat="1" ht="11.25" customHeight="1"/>
-    <x:row r="73" spans="1:6" customFormat="1" ht="11.25" customHeight="1"/>
-    <x:row r="87" spans="1:6" customFormat="1" ht="11.25" customHeight="1"/>
-    <x:row r="95" spans="1:6" customFormat="1" ht="11.25" customHeight="1"/>
-    <x:row r="107" spans="1:6" customFormat="1" ht="11.25" customHeight="1"/>
-    <x:row r="130" spans="1:6" customFormat="1" ht="11.25" customHeight="1"/>
-    <x:row r="139" spans="1:6" customFormat="1" ht="11.25" customHeight="1"/>
-    <x:row r="146" spans="1:6" customFormat="1" ht="11.25" customHeight="1"/>
-    <x:row r="157" spans="1:6" customFormat="1" ht="11.25" customHeight="1"/>
-    <x:row r="169" spans="1:6" customFormat="1" ht="11.25" customHeight="1"/>
-    <x:row r="180" spans="1:6" customFormat="1" ht="11.25" customHeight="1"/>
-    <x:row r="181" spans="1:6" customFormat="1" ht="11.25" customHeight="1"/>
-    <x:row r="183" spans="1:6" customFormat="1" ht="11.25" customHeight="1"/>
-    <x:row r="193" spans="1:6" customFormat="1" ht="11.25" customHeight="1"/>
-    <x:row r="203" spans="1:6" customFormat="1" ht="11.25" customHeight="1"/>
-    <x:row r="210" spans="1:6" customFormat="1" ht="11.25" customHeight="1"/>
-    <x:row r="211" spans="1:6" customFormat="1" ht="11.25" customHeight="1"/>
-    <x:row r="218" spans="1:6" customFormat="1" ht="11.25" customHeight="1"/>
-    <x:row r="224" spans="1:6" customFormat="1" ht="11.25" customHeight="1"/>
-    <x:row r="227" spans="1:6" customFormat="1" ht="11.25" customHeight="1"/>
-    <x:row r="228" spans="1:6" customFormat="1" ht="11.25" customHeight="1"/>
-    <x:row r="231" spans="1:6" customFormat="1" ht="11.25" customHeight="1"/>
-    <x:row r="235" spans="1:6" customFormat="1" ht="11.25" customHeight="1"/>
-    <x:row r="236" spans="1:6" customFormat="1" ht="11.25" customHeight="1"/>
-    <x:row r="239" spans="1:6" customFormat="1" ht="11.25" customHeight="1"/>
-    <x:row r="240" spans="1:6" customFormat="1" ht="11.25" customHeight="1"/>
-    <x:row r="243" spans="1:6" customFormat="1" ht="11.25" customHeight="1"/>
-    <x:row r="249" spans="1:6" customFormat="1" ht="11.25" customHeight="1"/>
-    <x:row r="250" spans="1:6" customFormat="1" ht="11.25" customHeight="1"/>
-    <x:row r="256" spans="1:6" customFormat="1" ht="11.25" customHeight="1"/>
-    <x:row r="257" spans="1:6" customFormat="1" ht="11.25" customHeight="1"/>
-    <x:row r="264" spans="1:6" customFormat="1" ht="11.25" customHeight="1"/>
-    <x:row r="268" spans="1:6" customFormat="1" ht="11.25" customHeight="1"/>
-    <x:row r="269" spans="1:6" customFormat="1" ht="11.25" customHeight="1"/>
-    <x:row r="274" spans="1:6" customFormat="1" ht="11.25" customHeight="1"/>
-    <x:row r="275" spans="1:6" customFormat="1" ht="11.25" customHeight="1"/>
-    <x:row r="278" spans="1:6" customFormat="1" ht="11.25" customHeight="1"/>
-    <x:row r="279" spans="1:6" customFormat="1" ht="11.25" customHeight="1"/>
-    <x:row r="281" spans="1:6" customFormat="1" ht="11.25" customHeight="1"/>
-    <x:row r="300" spans="1:6" customFormat="1" ht="11.25" customHeight="1"/>
-    <x:row r="303" spans="1:6" customFormat="1" ht="11.25" customHeight="1"/>
-    <x:row r="304" spans="1:6" customFormat="1" ht="11.25" customHeight="1"/>
-    <x:row r="308" spans="1:6" customFormat="1" ht="11.25" customHeight="1"/>
-    <x:row r="315" spans="1:6" customFormat="1" ht="11.25" customHeight="1"/>
-    <x:row r="318" spans="1:6" customFormat="1" ht="11.25" customHeight="1"/>
-    <x:row r="319" spans="1:6" customFormat="1" ht="11.25" customHeight="1"/>
-    <x:row r="321" spans="1:6" customFormat="1" ht="11.25" customHeight="1"/>
-    <x:row r="322" spans="1:6" customFormat="1" ht="11.25" customHeight="1"/>
-    <x:row r="326" spans="1:6" customFormat="1" ht="11.25" customHeight="1"/>
-    <x:row r="327" spans="1:6" customFormat="1" ht="11.25" customHeight="1"/>
-    <x:row r="329" spans="1:6" customFormat="1" ht="11.25" customHeight="1"/>
-    <x:row r="330" spans="1:6" customFormat="1" ht="11.25" customHeight="1"/>
-    <x:row r="334" spans="1:6" customFormat="1" ht="11.25" customHeight="1"/>
-    <x:row r="338" spans="1:6" customFormat="1" ht="11.25" customHeight="1"/>
-    <x:row r="339" spans="1:6" customFormat="1" ht="11.25" customHeight="1"/>
-    <x:row r="343" spans="1:6" customFormat="1" ht="11.25" customHeight="1"/>
-    <x:row r="344" spans="1:6" customFormat="1" ht="11.25" customHeight="1"/>
-    <x:row r="346" spans="1:6" customFormat="1" ht="11.25" customHeight="1"/>
-    <x:row r="349" spans="1:6" customFormat="1" ht="11.25" customHeight="1"/>
-    <x:row r="350" spans="1:6" customFormat="1" ht="11.25" customHeight="1"/>
-    <x:row r="352" spans="1:6" customFormat="1" ht="11.25" customHeight="1"/>
-    <x:row r="353" spans="1:6" customFormat="1" ht="11.25" customHeight="1"/>
-    <x:row r="355" spans="1:6" customFormat="1" ht="11.25" customHeight="1"/>
-    <x:row r="356" spans="1:6" customFormat="1" ht="11.25" customHeight="1"/>
-    <x:row r="358" spans="1:6" customFormat="1" ht="11.25" customHeight="1"/>
-    <x:row r="359" spans="1:6" customFormat="1" ht="11.25" customHeight="1"/>
-    <x:row r="361" spans="1:6" customFormat="1" ht="11.25" customHeight="1"/>
-    <x:row r="362" spans="1:6" customFormat="1" ht="11.25" customHeight="1"/>
-    <x:row r="367" spans="1:6" customFormat="1" ht="11.25" customHeight="1"/>
-    <x:row r="370" spans="1:6" customFormat="1" ht="11.25" customHeight="1"/>
+    <x:row r="14" spans="1:6" ht="12.75" customHeight="1"/>
+    <x:row r="29" spans="1:6" ht="11.25" customHeight="1"/>
+    <x:row r="30" spans="1:6" ht="11.25" customHeight="1"/>
+    <x:row r="42" spans="1:6" ht="11.25" customHeight="1"/>
+    <x:row r="43" spans="1:6" ht="11.25" customHeight="1"/>
+    <x:row r="50" spans="1:6" ht="11.25" customHeight="1"/>
+    <x:row r="65" spans="1:6" ht="11.25" customHeight="1"/>
+    <x:row r="72" spans="1:6" ht="11.25" customHeight="1"/>
+    <x:row r="73" spans="1:6" ht="11.25" customHeight="1"/>
+    <x:row r="87" spans="1:6" ht="11.25" customHeight="1"/>
+    <x:row r="95" spans="1:6" ht="11.25" customHeight="1"/>
+    <x:row r="107" spans="1:6" ht="11.25" customHeight="1"/>
+    <x:row r="130" spans="1:6" ht="11.25" customHeight="1"/>
+    <x:row r="139" spans="1:6" ht="11.25" customHeight="1"/>
+    <x:row r="146" spans="1:6" ht="11.25" customHeight="1"/>
+    <x:row r="157" spans="1:6" ht="11.25" customHeight="1"/>
+    <x:row r="169" spans="1:6" ht="11.25" customHeight="1"/>
+    <x:row r="180" spans="1:6" ht="11.25" customHeight="1"/>
+    <x:row r="181" spans="1:6" ht="11.25" customHeight="1"/>
+    <x:row r="183" spans="1:6" ht="11.25" customHeight="1"/>
+    <x:row r="193" spans="1:6" ht="11.25" customHeight="1"/>
+    <x:row r="203" spans="1:6" ht="11.25" customHeight="1"/>
+    <x:row r="210" spans="1:6" ht="11.25" customHeight="1"/>
+    <x:row r="211" spans="1:6" ht="11.25" customHeight="1"/>
+    <x:row r="218" spans="1:6" ht="11.25" customHeight="1"/>
+    <x:row r="224" spans="1:6" ht="11.25" customHeight="1"/>
+    <x:row r="227" spans="1:6" ht="11.25" customHeight="1"/>
+    <x:row r="228" spans="1:6" ht="11.25" customHeight="1"/>
+    <x:row r="231" spans="1:6" ht="11.25" customHeight="1"/>
+    <x:row r="235" spans="1:6" ht="11.25" customHeight="1"/>
+    <x:row r="236" spans="1:6" ht="11.25" customHeight="1"/>
+    <x:row r="239" spans="1:6" ht="11.25" customHeight="1"/>
+    <x:row r="240" spans="1:6" ht="11.25" customHeight="1"/>
+    <x:row r="243" spans="1:6" ht="11.25" customHeight="1"/>
+    <x:row r="249" spans="1:6" ht="11.25" customHeight="1"/>
+    <x:row r="250" spans="1:6" ht="11.25" customHeight="1"/>
+    <x:row r="256" spans="1:6" ht="11.25" customHeight="1"/>
+    <x:row r="257" spans="1:6" ht="11.25" customHeight="1"/>
+    <x:row r="264" spans="1:6" ht="11.25" customHeight="1"/>
+    <x:row r="268" spans="1:6" ht="11.25" customHeight="1"/>
+    <x:row r="269" spans="1:6" ht="11.25" customHeight="1"/>
+    <x:row r="274" spans="1:6" ht="11.25" customHeight="1"/>
+    <x:row r="275" spans="1:6" ht="11.25" customHeight="1"/>
+    <x:row r="278" spans="1:6" ht="11.25" customHeight="1"/>
+    <x:row r="279" spans="1:6" ht="11.25" customHeight="1"/>
+    <x:row r="281" spans="1:6" ht="11.25" customHeight="1"/>
+    <x:row r="300" spans="1:6" ht="11.25" customHeight="1"/>
+    <x:row r="303" spans="1:6" ht="11.25" customHeight="1"/>
+    <x:row r="304" spans="1:6" ht="11.25" customHeight="1"/>
+    <x:row r="308" spans="1:6" ht="11.25" customHeight="1"/>
+    <x:row r="315" spans="1:6" ht="11.25" customHeight="1"/>
+    <x:row r="318" spans="1:6" ht="11.25" customHeight="1"/>
+    <x:row r="319" spans="1:6" ht="11.25" customHeight="1"/>
+    <x:row r="321" spans="1:6" ht="11.25" customHeight="1"/>
+    <x:row r="322" spans="1:6" ht="11.25" customHeight="1"/>
+    <x:row r="326" spans="1:6" ht="11.25" customHeight="1"/>
+    <x:row r="327" spans="1:6" ht="11.25" customHeight="1"/>
+    <x:row r="329" spans="1:6" ht="11.25" customHeight="1"/>
+    <x:row r="330" spans="1:6" ht="11.25" customHeight="1"/>
+    <x:row r="334" spans="1:6" ht="11.25" customHeight="1"/>
+    <x:row r="338" spans="1:6" ht="11.25" customHeight="1"/>
+    <x:row r="339" spans="1:6" ht="11.25" customHeight="1"/>
+    <x:row r="343" spans="1:6" ht="11.25" customHeight="1"/>
+    <x:row r="344" spans="1:6" ht="11.25" customHeight="1"/>
+    <x:row r="346" spans="1:6" ht="11.25" customHeight="1"/>
+    <x:row r="349" spans="1:6" ht="11.25" customHeight="1"/>
+    <x:row r="350" spans="1:6" ht="11.25" customHeight="1"/>
+    <x:row r="352" spans="1:6" ht="11.25" customHeight="1"/>
+    <x:row r="353" spans="1:6" ht="11.25" customHeight="1"/>
+    <x:row r="355" spans="1:6" ht="11.25" customHeight="1"/>
+    <x:row r="356" spans="1:6" ht="11.25" customHeight="1"/>
+    <x:row r="358" spans="1:6" ht="11.25" customHeight="1"/>
+    <x:row r="359" spans="1:6" ht="11.25" customHeight="1"/>
+    <x:row r="361" spans="1:6" ht="11.25" customHeight="1"/>
+    <x:row r="362" spans="1:6" ht="11.25" customHeight="1"/>
+    <x:row r="367" spans="1:6" ht="11.25" customHeight="1"/>
+    <x:row r="370" spans="1:6" ht="11.25" customHeight="1"/>
   </x:sheetData>
   <x:phoneticPr fontId="0" type="noConversion"/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/PivotSubtotalsSource/input.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/PivotSubtotalsSource/input.xlsx
@@ -548,27 +548,15 @@
         <x:item t="default"/>
       </x:items>
     </x:pivotField>
-    <x:pivotField name="Ship date" compact="0" outline="0">
-      <x:items count="1">
-        <x:item t="default"/>
-      </x:items>
-    </x:pivotField>
-    <x:pivotField name="Items total" dataField="1" compact="0" outline="0">
-      <x:items count="1">
-        <x:item t="default"/>
-      </x:items>
-    </x:pivotField>
+    <x:pivotField name="Ship date" compact="0" outline="0"/>
+    <x:pivotField name="Items total" dataField="1" compact="0" outline="0"/>
     <x:pivotField name="Tax rate" axis="axisCol" compact="0" outline="0" showAll="0" includeNewItemsInFilter="1">
       <x:items count="2">
         <x:item x="0"/>
         <x:item t="default"/>
       </x:items>
     </x:pivotField>
-    <x:pivotField name="Amount paid" dataField="1" compact="0" outline="0">
-      <x:items count="1">
-        <x:item t="default"/>
-      </x:items>
-    </x:pivotField>
+    <x:pivotField name="Amount paid" dataField="1" compact="0" outline="0"/>
   </x:pivotFields>
   <x:rowFields count="3">
     <x:field x="0"/>

--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/PivotSubtotalsSource/input.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/PivotSubtotalsSource/input.xlsx
@@ -1059,13 +1059,13 @@
       <x:c r="E3" s="16">
         <x:v>32289</x:v>
       </x:c>
-      <x:c r="F3" s="17" t="n">
+      <x:c r="F3" s="17">
         <x:v>134.85</x:v>
       </x:c>
-      <x:c r="G3" s="18" t="n">
+      <x:c r="G3" s="18">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="H3" s="17" t="n">
+      <x:c r="H3" s="17">
         <x:v>134.85</x:v>
       </x:c>
     </x:row>
@@ -1082,13 +1082,13 @@
       <x:c r="E4" s="16">
         <x:v>32343</x:v>
       </x:c>
-      <x:c r="F4" s="17" t="n">
+      <x:c r="F4" s="17">
         <x:v>20108</x:v>
       </x:c>
-      <x:c r="G4" s="18" t="n">
+      <x:c r="G4" s="18">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="H4" s="17" t="n">
+      <x:c r="H4" s="17">
         <x:v>20108</x:v>
       </x:c>
     </x:row>
@@ -1105,13 +1105,13 @@
       <x:c r="E5" s="16">
         <x:v>32382</x:v>
       </x:c>
-      <x:c r="F5" s="17" t="n">
+      <x:c r="F5" s="17">
         <x:v>10152</x:v>
       </x:c>
-      <x:c r="G5" s="18" t="n">
+      <x:c r="G5" s="18">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="H5" s="17" t="n">
+      <x:c r="H5" s="17">
         <x:v>10152</x:v>
       </x:c>
     </x:row>
@@ -1128,13 +1128,13 @@
       <x:c r="E6" s="16">
         <x:v>34261</x:v>
       </x:c>
-      <x:c r="F6" s="17" t="n">
+      <x:c r="F6" s="17">
         <x:v>1004.8</x:v>
       </x:c>
-      <x:c r="G6" s="18" t="n">
+      <x:c r="G6" s="18">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="H6" s="17" t="n">
+      <x:c r="H6" s="17">
         <x:v>1004.8</x:v>
       </x:c>
     </x:row>

--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/PivotSubtotalsSource/input.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/PivotSubtotalsSource/input.xlsx
@@ -1186,17 +1186,7 @@
     <x:col min="6" max="6" width="13.832031" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="3" spans="1:6"/>
     <x:row r="4" spans="1:6" ht="11.25" customHeight="1"/>
-    <x:row r="5" spans="1:6"/>
-    <x:row r="6" spans="1:6"/>
-    <x:row r="7" spans="1:6"/>
-    <x:row r="8" spans="1:6"/>
-    <x:row r="9" spans="1:6"/>
-    <x:row r="10" spans="1:6"/>
-    <x:row r="11" spans="1:6"/>
-    <x:row r="12" spans="1:6"/>
-    <x:row r="13" spans="1:6"/>
     <x:row r="14" spans="1:6" ht="12.75" customHeight="1"/>
     <x:row r="29" spans="1:6" ht="11.25" customHeight="1"/>
     <x:row r="30" spans="1:6" ht="11.25" customHeight="1"/>
